--- a/scratch/src/Docs/GFG_Topics&Qs.xlsx
+++ b/scratch/src/Docs/GFG_Topics&Qs.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="552" windowWidth="11196" windowHeight="5508" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="5220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithms" sheetId="1" r:id="rId1"/>
     <sheet name="Datastructures" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1:F15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="635">
   <si>
     <t>S.NO</t>
   </si>
@@ -1896,13 +1898,37 @@
   </si>
   <si>
     <t>Create a matrix with alternating rectangles of O and X</t>
+  </si>
+  <si>
+    <t>Try Sorting</t>
+  </si>
+  <si>
+    <t>Try hashing</t>
+  </si>
+  <si>
+    <t>Try divide and conquer</t>
+  </si>
+  <si>
+    <t>Try graph algorithms</t>
+  </si>
+  <si>
+    <t>Clone linked list with random pointers</t>
+  </si>
+  <si>
+    <t>Use hashing, insert clones in original list</t>
+  </si>
+  <si>
+    <t>Count number of islands in a matrix of 'x' and 'o'</t>
+  </si>
+  <si>
+    <t>Count number of 'x' that have 'o' on top and left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1946,16 +1972,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2002,7 +2037,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2034,9 +2069,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2068,6 +2104,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2243,19 +2280,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2271,70 +2308,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2342,7 +2379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2350,7 +2387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -2358,7 +2395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -2366,7 +2403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -2374,7 +2411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -2382,7 +2419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -2390,7 +2427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -2398,7 +2435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -2406,7 +2443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>11</v>
       </c>
@@ -2414,7 +2451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>12</v>
       </c>
@@ -2422,7 +2459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>13</v>
       </c>
@@ -2430,7 +2467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
@@ -2438,7 +2475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>15</v>
       </c>
@@ -2446,7 +2483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>16</v>
       </c>
@@ -2454,7 +2491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>17</v>
       </c>
@@ -2462,7 +2499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -2470,7 +2507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>19</v>
       </c>
@@ -2478,7 +2515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>20</v>
       </c>
@@ -2486,7 +2523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>21</v>
       </c>
@@ -2494,7 +2531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>22</v>
       </c>
@@ -2502,7 +2539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>23</v>
       </c>
@@ -2510,7 +2547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>24</v>
       </c>
@@ -2518,15 +2555,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25</v>
       </c>
@@ -2534,7 +2571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>26</v>
       </c>
@@ -2542,7 +2579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>27</v>
       </c>
@@ -2550,7 +2587,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>28</v>
       </c>
@@ -2558,7 +2595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>29</v>
       </c>
@@ -2566,7 +2603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>30</v>
       </c>
@@ -2574,7 +2611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>31</v>
       </c>
@@ -2582,7 +2619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>32</v>
       </c>
@@ -2590,15 +2627,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>33</v>
       </c>
@@ -2606,7 +2643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>34</v>
       </c>
@@ -2614,7 +2651,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>35</v>
       </c>
@@ -2622,7 +2659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>36</v>
       </c>
@@ -2630,7 +2667,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>37</v>
       </c>
@@ -2638,7 +2675,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>38</v>
       </c>
@@ -2646,7 +2683,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>39</v>
       </c>
@@ -2654,7 +2691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40</v>
       </c>
@@ -2662,7 +2699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41</v>
       </c>
@@ -2670,7 +2707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42</v>
       </c>
@@ -2678,7 +2715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43</v>
       </c>
@@ -2686,7 +2723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44</v>
       </c>
@@ -2694,7 +2731,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45</v>
       </c>
@@ -2702,7 +2739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>46</v>
       </c>
@@ -2710,7 +2747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>47</v>
       </c>
@@ -2718,7 +2755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>48</v>
       </c>
@@ -2726,7 +2763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>49</v>
       </c>
@@ -2734,7 +2771,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>50</v>
       </c>
@@ -2742,7 +2779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>51</v>
       </c>
@@ -2750,7 +2787,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>52</v>
       </c>
@@ -2758,7 +2795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>53</v>
       </c>
@@ -2766,7 +2803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>54</v>
       </c>
@@ -2774,7 +2811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>55</v>
       </c>
@@ -2782,7 +2819,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>56</v>
       </c>
@@ -2790,7 +2827,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>57</v>
       </c>
@@ -2798,7 +2835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>58</v>
       </c>
@@ -2806,7 +2843,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>59</v>
       </c>
@@ -2814,7 +2851,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>60</v>
       </c>
@@ -2822,7 +2859,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>61</v>
       </c>
@@ -2830,7 +2867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>62</v>
       </c>
@@ -2838,7 +2875,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>63</v>
       </c>
@@ -2846,7 +2883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>64</v>
       </c>
@@ -2854,7 +2891,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>65</v>
       </c>
@@ -2862,7 +2899,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>66</v>
       </c>
@@ -2870,7 +2907,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>67</v>
       </c>
@@ -2878,7 +2915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>68</v>
       </c>
@@ -2886,15 +2923,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>69</v>
       </c>
@@ -2902,7 +2939,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>70</v>
       </c>
@@ -2910,7 +2947,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>71</v>
       </c>
@@ -2918,7 +2955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>72</v>
       </c>
@@ -2926,7 +2963,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>73</v>
       </c>
@@ -2934,7 +2971,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>74</v>
       </c>
@@ -2942,7 +2979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>75</v>
       </c>
@@ -2950,18 +2987,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>76</v>
       </c>
@@ -2969,7 +3006,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>77</v>
       </c>
@@ -2977,7 +3014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>78</v>
       </c>
@@ -2985,7 +3022,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>79</v>
       </c>
@@ -2993,7 +3030,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>80</v>
       </c>
@@ -3001,7 +3038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>81</v>
       </c>
@@ -3009,7 +3046,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>82</v>
       </c>
@@ -3017,7 +3054,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>83</v>
       </c>
@@ -3025,7 +3062,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>84</v>
       </c>
@@ -3033,15 +3070,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>85</v>
       </c>
@@ -3049,7 +3086,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>86</v>
       </c>
@@ -3057,7 +3094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>87</v>
       </c>
@@ -3065,7 +3102,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>88</v>
       </c>
@@ -3073,7 +3110,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>89</v>
       </c>
@@ -3081,7 +3118,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>90</v>
       </c>
@@ -3089,7 +3126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>91</v>
       </c>
@@ -3097,15 +3134,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>92</v>
       </c>
@@ -3113,7 +3150,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>93</v>
       </c>
@@ -3121,7 +3158,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>94</v>
       </c>
@@ -3129,7 +3166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>95</v>
       </c>
@@ -3137,7 +3174,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>96</v>
       </c>
@@ -3145,7 +3182,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>97</v>
       </c>
@@ -3153,7 +3190,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>98</v>
       </c>
@@ -3161,15 +3198,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>99</v>
       </c>
@@ -3177,7 +3214,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>100</v>
       </c>
@@ -3185,7 +3222,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>101</v>
       </c>
@@ -3193,7 +3230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>102</v>
       </c>
@@ -3201,7 +3238,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>103</v>
       </c>
@@ -3209,7 +3246,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>104</v>
       </c>
@@ -3217,7 +3254,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>105</v>
       </c>
@@ -3225,7 +3262,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>106</v>
       </c>
@@ -3233,7 +3270,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>107</v>
       </c>
@@ -3241,7 +3278,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>108</v>
       </c>
@@ -3249,7 +3286,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>109</v>
       </c>
@@ -3257,7 +3294,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>110</v>
       </c>
@@ -3265,7 +3302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>111</v>
       </c>
@@ -3273,7 +3310,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>112</v>
       </c>
@@ -3281,7 +3318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>113</v>
       </c>
@@ -3289,7 +3326,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>114</v>
       </c>
@@ -3297,7 +3334,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>115</v>
       </c>
@@ -3305,7 +3342,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>116</v>
       </c>
@@ -3313,7 +3350,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>117</v>
       </c>
@@ -3321,7 +3358,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>118</v>
       </c>
@@ -3329,7 +3366,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>119</v>
       </c>
@@ -3337,7 +3374,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>120</v>
       </c>
@@ -3345,7 +3382,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>121</v>
       </c>
@@ -3353,7 +3390,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>122</v>
       </c>
@@ -3361,7 +3398,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>123</v>
       </c>
@@ -3369,7 +3406,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>124</v>
       </c>
@@ -3377,7 +3414,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>125</v>
       </c>
@@ -3385,7 +3422,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>126</v>
       </c>
@@ -3393,7 +3430,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>127</v>
       </c>
@@ -3401,7 +3438,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>128</v>
       </c>
@@ -3409,7 +3446,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>129</v>
       </c>
@@ -3417,7 +3454,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>130</v>
       </c>
@@ -3425,7 +3462,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>131</v>
       </c>
@@ -3433,7 +3470,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>132</v>
       </c>
@@ -3441,7 +3478,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>133</v>
       </c>
@@ -3449,7 +3486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>134</v>
       </c>
@@ -3457,7 +3494,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>135</v>
       </c>
@@ -3465,7 +3502,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>136</v>
       </c>
@@ -3473,7 +3510,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>137</v>
       </c>
@@ -3481,7 +3518,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>138</v>
       </c>
@@ -3489,7 +3526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>139</v>
       </c>
@@ -3497,7 +3534,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>140</v>
       </c>
@@ -3505,7 +3542,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>141</v>
       </c>
@@ -3513,7 +3550,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>142</v>
       </c>
@@ -3521,7 +3558,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>143</v>
       </c>
@@ -3529,7 +3566,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>144</v>
       </c>
@@ -3537,7 +3574,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>145</v>
       </c>
@@ -3545,7 +3582,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>146</v>
       </c>
@@ -3553,7 +3590,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>147</v>
       </c>
@@ -3561,7 +3598,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>148</v>
       </c>
@@ -3569,7 +3606,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>149</v>
       </c>
@@ -3577,18 +3614,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>150</v>
       </c>
@@ -3596,7 +3633,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>151</v>
       </c>
@@ -3604,7 +3641,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>152</v>
       </c>
@@ -3612,7 +3649,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>153</v>
       </c>
@@ -3620,7 +3657,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>154</v>
       </c>
@@ -3628,7 +3665,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>155</v>
       </c>
@@ -3636,7 +3673,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>156</v>
       </c>
@@ -3644,7 +3681,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>157</v>
       </c>
@@ -3652,7 +3689,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>158</v>
       </c>
@@ -3660,7 +3697,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>159</v>
       </c>
@@ -3668,7 +3705,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>160</v>
       </c>
@@ -3676,7 +3713,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>161</v>
       </c>
@@ -3684,7 +3721,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>162</v>
       </c>
@@ -3692,7 +3729,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>163</v>
       </c>
@@ -3700,7 +3737,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>164</v>
       </c>
@@ -3708,7 +3745,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>165</v>
       </c>
@@ -3716,7 +3753,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>166</v>
       </c>
@@ -3724,7 +3761,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>167</v>
       </c>
@@ -3732,7 +3769,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>168</v>
       </c>
@@ -3740,7 +3777,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>169</v>
       </c>
@@ -3748,7 +3785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>170</v>
       </c>
@@ -3756,7 +3793,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>171</v>
       </c>
@@ -3764,7 +3801,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>172</v>
       </c>
@@ -3772,7 +3809,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>173</v>
       </c>
@@ -3780,7 +3817,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>174</v>
       </c>
@@ -3788,7 +3825,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>175</v>
       </c>
@@ -3796,7 +3833,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>176</v>
       </c>
@@ -3804,7 +3841,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>177</v>
       </c>
@@ -3812,7 +3849,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>178</v>
       </c>
@@ -3820,7 +3857,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>179</v>
       </c>
@@ -3828,7 +3865,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>180</v>
       </c>
@@ -3836,7 +3873,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>181</v>
       </c>
@@ -3844,7 +3881,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>182</v>
       </c>
@@ -3852,7 +3889,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>183</v>
       </c>
@@ -3860,7 +3897,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>184</v>
       </c>
@@ -3868,7 +3905,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>185</v>
       </c>
@@ -3876,7 +3913,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>186</v>
       </c>
@@ -3884,7 +3921,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>187</v>
       </c>
@@ -3892,7 +3929,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>188</v>
       </c>
@@ -3900,88 +3937,88 @@
         <v>338</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>354</v>
       </c>
@@ -3992,22 +4029,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B421"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="C423" sqref="C423"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="78.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4023,7 +4062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4031,7 +4070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4039,7 +4078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4047,3249 +4086,3360 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
+    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
+    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
+    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
+    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
+    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
+    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
+    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
+    <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
+    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
+    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
+    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
+    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
+    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
+    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
+    <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
+    <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
+    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
+    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
+    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
+    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
+    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
+    <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
+    <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
+    <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
+    <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
+    <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1">
+    <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1">
+    <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
+    <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
+    <row r="46" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1">
+    <row r="47" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1">
+    <row r="48" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1">
+    <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1">
+    <row r="50" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1">
+    <row r="51" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1">
+    <row r="52" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1">
+    <row r="53" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1">
+    <row r="54" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1">
+    <row r="55" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1">
+    <row r="56" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
+    <row r="57" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1">
+    <row r="58" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1">
+    <row r="59" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1">
+    <row r="60" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1">
+    <row r="61" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1">
+    <row r="62" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1">
+    <row r="63" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1">
-        <v>62</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
-        <v>63</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
-        <v>64</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1">
-        <v>65</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
-        <v>66</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
-        <v>67</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
-        <v>68</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
-        <v>69</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
-        <v>70</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
-        <v>71</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
-        <v>72</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1">
-        <v>73</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" s="2" t="s">
+    <row r="79" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1">
-        <v>74</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1">
-        <v>75</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="82" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1">
-        <v>76</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1">
-        <v>77</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1">
-        <v>78</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1">
-        <v>79</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
-        <v>80</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1">
-        <v>81</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1">
-        <v>82</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1">
-        <v>83</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="2" t="s">
+    <row r="91" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1">
-        <v>84</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1">
-        <v>85</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1">
-        <v>86</v>
-      </c>
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1">
-        <v>87</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1">
-        <v>88</v>
-      </c>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1">
-        <v>89</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1">
-        <v>90</v>
-      </c>
-      <c r="B98" s="1" t="s">
+    <row r="99" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1">
-        <v>91</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    <row r="100" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1">
-        <v>92</v>
-      </c>
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1">
-        <v>93</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1">
-        <v>94</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1">
-        <v>95</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1">
-        <v>96</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1">
-        <v>97</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1">
-        <v>98</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1">
-        <v>99</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1">
-        <v>100</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1">
-        <v>101</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1">
-        <v>102</v>
-      </c>
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1">
-        <v>103</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="112" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1">
-        <v>104</v>
-      </c>
-      <c r="B112" s="1" t="s">
+    <row r="113" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1">
-        <v>105</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="114" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1">
-        <v>106</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1">
-        <v>107</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1">
-        <v>108</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1">
-        <v>109</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1">
-        <v>110</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1">
-        <v>111</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1">
-        <v>112</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1">
-        <v>113</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1">
-        <v>114</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1">
-        <v>115</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1">
-        <v>116</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1">
-        <v>117</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1">
-        <v>118</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1">
-        <v>119</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1">
-        <v>120</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1">
-        <v>121</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1">
-        <v>122</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>128</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1">
-        <v>123</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1">
-        <v>124</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1">
-        <v>125</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1">
-        <v>126</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>132</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1">
-        <v>127</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1">
-        <v>128</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1">
-        <v>129</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1">
-        <v>130</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1">
-        <v>131</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1">
-        <v>132</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1">
-        <v>133</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1">
-        <v>134</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>140</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1">
-        <v>135</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="144" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1">
-        <v>136</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1">
-        <v>137</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1">
-        <v>138</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>139</v>
-      </c>
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>145</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>140</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>146</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
+    <row r="150" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>147</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>149</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>150</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>153</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>154</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>159</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>160</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>161</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>162</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>163</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>164</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>165</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>166</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>167</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>168</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>169</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>170</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>171</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>172</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>173</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>174</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>175</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>176</v>
+      </c>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>177</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>178</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>179</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>180</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>181</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>182</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>183</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>184</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>185</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>186</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>187</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>188</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>189</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>190</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>191</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>192</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>193</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>194</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>195</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>196</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>197</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>198</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>199</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>200</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>201</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>202</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>203</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>204</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>205</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>206</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>207</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>208</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>209</v>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>210</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>211</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>212</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>213</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>214</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="218" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>215</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>216</v>
+      </c>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>217</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>218</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>219</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>220</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>221</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>222</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>223</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>224</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>225</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>226</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>227</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>228</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>229</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>230</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>231</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>232</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>233</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>234</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>235</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>236</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>237</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>238</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>239</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>240</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>241</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>242</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>243</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>244</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>245</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>246</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>247</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>248</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>249</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>250</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>251</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>252</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>253</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>254</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>255</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>256</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>257</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>258</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>259</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>260</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>261</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>262</v>
+      </c>
+      <c r="B265" s="1"/>
+    </row>
+    <row r="266" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>263</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>264</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>265</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>266</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>267</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>268</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>269</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>270</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>271</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>272</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>273</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>274</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>275</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>276</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>277</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>278</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>279</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>280</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>281</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>282</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>283</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>284</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>285</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>286</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>287</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>288</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>289</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>290</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>291</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>292</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>293</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>294</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>295</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>296</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>297</v>
+      </c>
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>298</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>299</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>300</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>301</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>302</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>303</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>304</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>305</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>306</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>307</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>308</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>309</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>310</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>311</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>312</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>313</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>314</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>315</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>316</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>317</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>318</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>319</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>320</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>321</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>322</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>323</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>324</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>325</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>326</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>327</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>328</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>329</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>330</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>331</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>332</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>333</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>334</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>335</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>336</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>337</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>338</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>339</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>340</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>341</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>342</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>343</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>344</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>345</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>346</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>347</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>348</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>349</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>350</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>351</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>352</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>353</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>354</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>355</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>356</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>357</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>358</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>359</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>360</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>361</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>362</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>363</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>364</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>365</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>366</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>367</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
         <v>368</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>142</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="B371" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>143</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="B372" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>144</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="B373" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
         <v>371</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>145</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="B374" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
         <v>372</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>146</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="B375" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>147</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="B376" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
         <v>374</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>148</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="B377" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
         <v>375</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>149</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="B378" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
         <v>376</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>150</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="B379" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
         <v>377</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>151</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="B380" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
         <v>378</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>152</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="B381" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
         <v>379</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
-        <v>153</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="B382" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
-        <v>154</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="B383" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
         <v>381</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
-        <v>155</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="B384" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>382</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
-        <v>156</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="B385" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
         <v>383</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
-        <v>157</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="B386" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
         <v>384</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
-        <v>158</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="B387" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
         <v>385</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
-        <v>159</v>
-      </c>
-      <c r="B167" s="1" t="s">
+      <c r="B388" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>386</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
-        <v>160</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="B389" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>387</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
-        <v>161</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="B390" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
         <v>388</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
-        <v>162</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="B391" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
         <v>389</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1">
-        <v>163</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="B392" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1">
-        <v>164</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="B393" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
         <v>391</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1">
-        <v>165</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="B394" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
         <v>392</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1">
-        <v>166</v>
-      </c>
-      <c r="B174" s="1" t="s">
+      <c r="B395" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
         <v>393</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1">
-        <v>167</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="B396" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
         <v>394</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1">
-        <v>168</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="B397" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1">
-        <v>169</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="B398" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
         <v>396</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="B179" s="2" t="s">
+      <c r="B399" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
         <v>397</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1">
-        <v>170</v>
-      </c>
-      <c r="B180" s="1" t="s">
+      <c r="B400" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
         <v>398</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1">
-        <v>171</v>
-      </c>
-      <c r="B181" s="1" t="s">
+      <c r="B401" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1">
-        <v>172</v>
-      </c>
-      <c r="B182" s="1" t="s">
+      <c r="B402" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1">
-        <v>173</v>
-      </c>
-      <c r="B183" s="1" t="s">
+      <c r="B403" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
         <v>401</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1">
-        <v>174</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="B404" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
         <v>402</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1">
-        <v>175</v>
-      </c>
-      <c r="B185" s="1" t="s">
+      <c r="B405" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
         <v>403</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1">
-        <v>176</v>
-      </c>
-      <c r="B186" s="1" t="s">
+      <c r="B406" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
         <v>404</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1">
-        <v>177</v>
-      </c>
-      <c r="B187" s="1" t="s">
+      <c r="B407" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
         <v>405</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1">
-        <v>178</v>
-      </c>
-      <c r="B188" s="1" t="s">
+      <c r="B408" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
         <v>406</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1">
-        <v>179</v>
-      </c>
-      <c r="B189" s="1" t="s">
+      <c r="B409" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
         <v>407</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1">
-        <v>180</v>
-      </c>
-      <c r="B190" s="1" t="s">
+      <c r="B410" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
         <v>408</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1">
-        <v>181</v>
-      </c>
-      <c r="B191" s="1" t="s">
+      <c r="B411" s="1"/>
+    </row>
+    <row r="412" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
         <v>409</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1">
-        <v>182</v>
-      </c>
-      <c r="B192" s="1" t="s">
+      <c r="B412" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
         <v>410</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1">
-        <v>183</v>
-      </c>
-      <c r="B193" s="1" t="s">
+      <c r="B413" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1">
-        <v>184</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="B414" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
         <v>412</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1">
-        <v>185</v>
-      </c>
-      <c r="B195" s="1" t="s">
+      <c r="B415" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
         <v>413</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1">
-        <v>186</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="B416" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
         <v>414</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1">
-        <v>187</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="B417" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
         <v>415</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1">
-        <v>188</v>
-      </c>
-      <c r="B198" s="1" t="s">
+      <c r="B418" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>416</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1">
-        <v>189</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="B419" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
         <v>417</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1">
-        <v>190</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="B420" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>418</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1">
-        <v>191</v>
-      </c>
-      <c r="B201" s="1" t="s">
+      <c r="B421" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
         <v>419</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1">
-        <v>192</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1">
-        <v>193</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1">
-        <v>194</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1">
-        <v>195</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1">
-        <v>196</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1">
-        <v>197</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1">
-        <v>198</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1">
-        <v>199</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1">
-        <v>200</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="B212" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1">
-        <v>201</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1">
-        <v>202</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1">
-        <v>203</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1">
-        <v>204</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1">
-        <v>205</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="B219" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1">
-        <v>206</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1">
-        <v>207</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1">
-        <v>208</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1">
-        <v>209</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1">
-        <v>210</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1">
-        <v>211</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1">
-        <v>212</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1">
-        <v>213</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="1">
-        <v>214</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1">
-        <v>215</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1">
-        <v>216</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1">
-        <v>217</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1">
-        <v>218</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1">
-        <v>219</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1">
-        <v>220</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1">
-        <v>221</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1">
-        <v>222</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1">
-        <v>223</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1">
-        <v>224</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1">
-        <v>225</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1">
-        <v>226</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1">
-        <v>227</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1">
-        <v>228</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1">
-        <v>229</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1">
-        <v>230</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1">
-        <v>231</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1">
-        <v>232</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1">
-        <v>233</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1">
-        <v>234</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1">
-        <v>235</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1">
-        <v>236</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1">
-        <v>237</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1">
-        <v>238</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1">
-        <v>239</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1">
-        <v>240</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1">
-        <v>241</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1">
-        <v>242</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1">
-        <v>243</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1">
-        <v>244</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1">
-        <v>245</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1">
-        <v>246</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1">
-        <v>247</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1">
-        <v>248</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1">
-        <v>249</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="B264" s="1"/>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="B265" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1">
-        <v>250</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1">
-        <v>251</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1">
-        <v>252</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1">
-        <v>253</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1">
-        <v>254</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="1">
-        <v>255</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1">
-        <v>256</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1">
-        <v>257</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1">
-        <v>258</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1">
-        <v>259</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1">
-        <v>260</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1">
-        <v>261</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1">
-        <v>262</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1">
-        <v>263</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1">
-        <v>264</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1">
-        <v>265</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1">
-        <v>266</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1">
-        <v>267</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1">
-        <v>268</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1">
-        <v>269</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1">
-        <v>270</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1">
-        <v>271</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1">
-        <v>272</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1">
-        <v>273</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1">
-        <v>274</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1">
-        <v>275</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1">
-        <v>276</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1">
-        <v>277</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1">
-        <v>278</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1">
-        <v>279</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1">
-        <v>280</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1">
-        <v>281</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1">
-        <v>282</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="B299" s="1"/>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="B300" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1">
-        <v>283</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1">
-        <v>284</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1">
-        <v>285</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1">
-        <v>286</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1">
-        <v>287</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1">
-        <v>288</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1">
-        <v>289</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1">
-        <v>290</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1">
-        <v>291</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1">
-        <v>292</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1">
-        <v>293</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1">
-        <v>294</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1">
-        <v>295</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1">
-        <v>296</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1">
-        <v>297</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1">
-        <v>298</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1">
-        <v>299</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1">
-        <v>300</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1">
-        <v>301</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1">
-        <v>302</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1">
-        <v>303</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1">
-        <v>304</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1">
-        <v>305</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1">
-        <v>306</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1">
-        <v>307</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1">
-        <v>308</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1">
-        <v>309</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1">
-        <v>310</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1">
-        <v>311</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1">
-        <v>312</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1">
-        <v>313</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1">
-        <v>314</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1">
-        <v>315</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1">
-        <v>316</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1">
-        <v>317</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1">
-        <v>318</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1">
-        <v>319</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1">
-        <v>320</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1">
-        <v>321</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1">
-        <v>322</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1">
-        <v>323</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1">
-        <v>324</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1">
-        <v>325</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1">
-        <v>326</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1">
-        <v>327</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1">
-        <v>328</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1">
-        <v>329</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1">
-        <v>330</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1">
-        <v>331</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="1">
-        <v>332</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="1">
-        <v>333</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="1">
-        <v>334</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="1">
-        <v>335</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1">
-        <v>336</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="1">
-        <v>337</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="1">
-        <v>338</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="1">
-        <v>339</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="1">
-        <v>340</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="1">
-        <v>341</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="1">
-        <v>342</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="1">
-        <v>343</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="1">
-        <v>344</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="1">
-        <v>345</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="1">
-        <v>346</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="1">
-        <v>347</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" s="1">
-        <v>348</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" s="1">
-        <v>349</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="1">
-        <v>350</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" s="1">
-        <v>351</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="1">
-        <v>352</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" s="1">
-        <v>353</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" s="1">
-        <v>354</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" s="1">
-        <v>355</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" s="1">
-        <v>356</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" s="1">
-        <v>357</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="1">
-        <v>358</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" s="1">
-        <v>359</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="1">
-        <v>360</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="1">
-        <v>361</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" s="1">
-        <v>362</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" s="1">
-        <v>363</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="1">
-        <v>364</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" s="1">
-        <v>365</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" s="1">
-        <v>366</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" s="1">
-        <v>367</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="1">
-        <v>368</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="1">
-        <v>369</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="1">
-        <v>370</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="1">
-        <v>371</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="1">
-        <v>372</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="1">
-        <v>373</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="1">
-        <v>374</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="1">
-        <v>375</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="1">
-        <v>376</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" s="1">
-        <v>377</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" s="1">
-        <v>378</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" s="1">
-        <v>379</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="1">
-        <v>380</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="1">
-        <v>381</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" s="1">
-        <v>382</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="1">
-        <v>383</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="1">
-        <v>384</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="1">
-        <v>385</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="1">
-        <v>386</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="1">
-        <v>387</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="1">
-        <v>388</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="1">
-        <v>389</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="1">
-        <v>390</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" s="1">
-        <v>391</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="B410" s="1"/>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="B411" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" s="1">
-        <v>392</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="1">
-        <v>393</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="1">
-        <v>394</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" s="1">
-        <v>395</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" s="1">
-        <v>396</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" s="1">
-        <v>397</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="1">
-        <v>398</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" s="1">
-        <v>399</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" s="1">
-        <v>400</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" s="1">
-        <v>401</v>
-      </c>
-      <c r="B421" s="1" t="s">
+      <c r="B422" s="1" t="s">
         <v>626</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C423" t="s">
+        <v>634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/scratch/src/Docs/GFG_Topics&Qs.xlsx
+++ b/scratch/src/Docs/GFG_Topics&Qs.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="5220" activeTab="1"/>
+    <workbookView xWindow="420" yWindow="552" windowWidth="11196" windowHeight="5508" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithms" sheetId="1" r:id="rId1"/>
     <sheet name="Datastructures" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A1:F15"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="627">
   <si>
     <t>S.NO</t>
   </si>
@@ -1898,37 +1896,13 @@
   </si>
   <si>
     <t>Create a matrix with alternating rectangles of O and X</t>
-  </si>
-  <si>
-    <t>Try Sorting</t>
-  </si>
-  <si>
-    <t>Try hashing</t>
-  </si>
-  <si>
-    <t>Try divide and conquer</t>
-  </si>
-  <si>
-    <t>Try graph algorithms</t>
-  </si>
-  <si>
-    <t>Clone linked list with random pointers</t>
-  </si>
-  <si>
-    <t>Use hashing, insert clones in original list</t>
-  </si>
-  <si>
-    <t>Count number of islands in a matrix of 'x' and 'o'</t>
-  </si>
-  <si>
-    <t>Count number of 'x' that have 'o' on top and left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1972,25 +1946,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2037,7 +2002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2069,10 +2034,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2104,7 +2068,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2280,19 +2243,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView topLeftCell="A220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2308,70 +2271,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2379,7 +2342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2387,7 +2350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -2395,7 +2358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -2403,7 +2366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -2411,7 +2374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -2419,7 +2382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -2427,7 +2390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -2435,7 +2398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -2443,7 +2406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>11</v>
       </c>
@@ -2451,7 +2414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>12</v>
       </c>
@@ -2459,7 +2422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>13</v>
       </c>
@@ -2467,7 +2430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>14</v>
       </c>
@@ -2475,7 +2438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>15</v>
       </c>
@@ -2483,7 +2446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>16</v>
       </c>
@@ -2491,7 +2454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>17</v>
       </c>
@@ -2499,7 +2462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -2507,7 +2470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>19</v>
       </c>
@@ -2515,7 +2478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>20</v>
       </c>
@@ -2523,7 +2486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>21</v>
       </c>
@@ -2531,7 +2494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>22</v>
       </c>
@@ -2539,7 +2502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>23</v>
       </c>
@@ -2547,7 +2510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>24</v>
       </c>
@@ -2555,15 +2518,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>25</v>
       </c>
@@ -2571,7 +2534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>26</v>
       </c>
@@ -2579,7 +2542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>27</v>
       </c>
@@ -2587,7 +2550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>28</v>
       </c>
@@ -2595,7 +2558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>29</v>
       </c>
@@ -2603,7 +2566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>30</v>
       </c>
@@ -2611,7 +2574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>31</v>
       </c>
@@ -2619,7 +2582,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>32</v>
       </c>
@@ -2627,15 +2590,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>33</v>
       </c>
@@ -2643,7 +2606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>34</v>
       </c>
@@ -2651,7 +2614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>35</v>
       </c>
@@ -2659,7 +2622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>36</v>
       </c>
@@ -2667,7 +2630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>37</v>
       </c>
@@ -2675,7 +2638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>38</v>
       </c>
@@ -2683,7 +2646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>39</v>
       </c>
@@ -2691,7 +2654,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>40</v>
       </c>
@@ -2699,7 +2662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>41</v>
       </c>
@@ -2707,7 +2670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>42</v>
       </c>
@@ -2715,7 +2678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>43</v>
       </c>
@@ -2723,7 +2686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>44</v>
       </c>
@@ -2731,7 +2694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>45</v>
       </c>
@@ -2739,7 +2702,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>46</v>
       </c>
@@ -2747,7 +2710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>47</v>
       </c>
@@ -2755,7 +2718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>48</v>
       </c>
@@ -2763,7 +2726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>49</v>
       </c>
@@ -2771,7 +2734,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>50</v>
       </c>
@@ -2779,7 +2742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>51</v>
       </c>
@@ -2787,7 +2750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>52</v>
       </c>
@@ -2795,7 +2758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>53</v>
       </c>
@@ -2803,7 +2766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>54</v>
       </c>
@@ -2811,7 +2774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>55</v>
       </c>
@@ -2819,7 +2782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>56</v>
       </c>
@@ -2827,7 +2790,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>57</v>
       </c>
@@ -2835,7 +2798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>58</v>
       </c>
@@ -2843,7 +2806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>59</v>
       </c>
@@ -2851,7 +2814,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>60</v>
       </c>
@@ -2859,7 +2822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>61</v>
       </c>
@@ -2867,7 +2830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>62</v>
       </c>
@@ -2875,7 +2838,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>63</v>
       </c>
@@ -2883,7 +2846,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>64</v>
       </c>
@@ -2891,7 +2854,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>65</v>
       </c>
@@ -2899,7 +2862,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>66</v>
       </c>
@@ -2907,7 +2870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>67</v>
       </c>
@@ -2915,7 +2878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>68</v>
       </c>
@@ -2923,15 +2886,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="B88" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>69</v>
       </c>
@@ -2939,7 +2902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>70</v>
       </c>
@@ -2947,7 +2910,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>71</v>
       </c>
@@ -2955,7 +2918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>72</v>
       </c>
@@ -2963,7 +2926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>73</v>
       </c>
@@ -2971,7 +2934,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>74</v>
       </c>
@@ -2979,7 +2942,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>75</v>
       </c>
@@ -2987,18 +2950,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="B98" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>76</v>
       </c>
@@ -3006,7 +2969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>77</v>
       </c>
@@ -3014,7 +2977,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>78</v>
       </c>
@@ -3022,7 +2985,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>79</v>
       </c>
@@ -3030,7 +2993,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>80</v>
       </c>
@@ -3038,7 +3001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>81</v>
       </c>
@@ -3046,7 +3009,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>82</v>
       </c>
@@ -3054,7 +3017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>83</v>
       </c>
@@ -3062,7 +3025,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>84</v>
       </c>
@@ -3070,15 +3033,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="B109" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>85</v>
       </c>
@@ -3086,7 +3049,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>86</v>
       </c>
@@ -3094,7 +3057,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>87</v>
       </c>
@@ -3102,7 +3065,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>88</v>
       </c>
@@ -3110,7 +3073,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>89</v>
       </c>
@@ -3118,7 +3081,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>90</v>
       </c>
@@ -3126,7 +3089,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>91</v>
       </c>
@@ -3134,15 +3097,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="B118" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>92</v>
       </c>
@@ -3150,7 +3113,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>93</v>
       </c>
@@ -3158,7 +3121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>94</v>
       </c>
@@ -3166,7 +3129,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>95</v>
       </c>
@@ -3174,7 +3137,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>96</v>
       </c>
@@ -3182,7 +3145,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>97</v>
       </c>
@@ -3190,7 +3153,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>98</v>
       </c>
@@ -3198,15 +3161,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="B127" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>99</v>
       </c>
@@ -3214,7 +3177,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>100</v>
       </c>
@@ -3222,7 +3185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>101</v>
       </c>
@@ -3230,7 +3193,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>102</v>
       </c>
@@ -3238,7 +3201,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>103</v>
       </c>
@@ -3246,7 +3209,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>104</v>
       </c>
@@ -3254,7 +3217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>105</v>
       </c>
@@ -3262,7 +3225,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>106</v>
       </c>
@@ -3270,7 +3233,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>107</v>
       </c>
@@ -3278,7 +3241,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>108</v>
       </c>
@@ -3286,7 +3249,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>109</v>
       </c>
@@ -3294,7 +3257,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>110</v>
       </c>
@@ -3302,7 +3265,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>111</v>
       </c>
@@ -3310,7 +3273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>112</v>
       </c>
@@ -3318,7 +3281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>113</v>
       </c>
@@ -3326,7 +3289,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>114</v>
       </c>
@@ -3334,7 +3297,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>115</v>
       </c>
@@ -3342,7 +3305,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>116</v>
       </c>
@@ -3350,7 +3313,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>117</v>
       </c>
@@ -3358,7 +3321,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>118</v>
       </c>
@@ -3366,7 +3329,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>119</v>
       </c>
@@ -3374,7 +3337,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>120</v>
       </c>
@@ -3382,7 +3345,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>121</v>
       </c>
@@ -3390,7 +3353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>122</v>
       </c>
@@ -3398,7 +3361,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>123</v>
       </c>
@@ -3406,7 +3369,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>124</v>
       </c>
@@ -3414,7 +3377,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>125</v>
       </c>
@@ -3422,7 +3385,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>126</v>
       </c>
@@ -3430,7 +3393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>127</v>
       </c>
@@ -3438,7 +3401,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>128</v>
       </c>
@@ -3446,7 +3409,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>129</v>
       </c>
@@ -3454,7 +3417,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>130</v>
       </c>
@@ -3462,7 +3425,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>131</v>
       </c>
@@ -3470,7 +3433,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>132</v>
       </c>
@@ -3478,7 +3441,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>133</v>
       </c>
@@ -3486,7 +3449,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>134</v>
       </c>
@@ -3494,7 +3457,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>135</v>
       </c>
@@ -3502,7 +3465,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>136</v>
       </c>
@@ -3510,7 +3473,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>137</v>
       </c>
@@ -3518,7 +3481,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>138</v>
       </c>
@@ -3526,7 +3489,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>139</v>
       </c>
@@ -3534,7 +3497,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>140</v>
       </c>
@@ -3542,7 +3505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>141</v>
       </c>
@@ -3550,7 +3513,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>142</v>
       </c>
@@ -3558,7 +3521,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>143</v>
       </c>
@@ -3566,7 +3529,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>144</v>
       </c>
@@ -3574,7 +3537,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>145</v>
       </c>
@@ -3582,7 +3545,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>146</v>
       </c>
@@ -3590,7 +3553,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>147</v>
       </c>
@@ -3598,7 +3561,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>148</v>
       </c>
@@ -3606,7 +3569,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>149</v>
       </c>
@@ -3614,18 +3577,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="B181" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>150</v>
       </c>
@@ -3633,7 +3596,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>151</v>
       </c>
@@ -3641,7 +3604,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>152</v>
       </c>
@@ -3649,7 +3612,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>153</v>
       </c>
@@ -3657,7 +3620,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>154</v>
       </c>
@@ -3665,7 +3628,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>155</v>
       </c>
@@ -3673,7 +3636,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>156</v>
       </c>
@@ -3681,7 +3644,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>157</v>
       </c>
@@ -3689,7 +3652,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>158</v>
       </c>
@@ -3697,7 +3660,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>159</v>
       </c>
@@ -3705,7 +3668,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>160</v>
       </c>
@@ -3713,7 +3676,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>161</v>
       </c>
@@ -3721,7 +3684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>162</v>
       </c>
@@ -3729,7 +3692,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>163</v>
       </c>
@@ -3737,7 +3700,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>164</v>
       </c>
@@ -3745,7 +3708,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>165</v>
       </c>
@@ -3753,7 +3716,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>166</v>
       </c>
@@ -3761,7 +3724,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>167</v>
       </c>
@@ -3769,7 +3732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>168</v>
       </c>
@@ -3777,7 +3740,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>169</v>
       </c>
@@ -3785,7 +3748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>170</v>
       </c>
@@ -3793,7 +3756,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>171</v>
       </c>
@@ -3801,7 +3764,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="1">
         <v>172</v>
       </c>
@@ -3809,7 +3772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="1">
         <v>173</v>
       </c>
@@ -3817,7 +3780,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="1">
         <v>174</v>
       </c>
@@ -3825,7 +3788,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="1">
         <v>175</v>
       </c>
@@ -3833,7 +3796,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="1">
         <v>176</v>
       </c>
@@ -3841,7 +3804,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="1">
         <v>177</v>
       </c>
@@ -3849,7 +3812,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="1">
         <v>178</v>
       </c>
@@ -3857,7 +3820,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="1">
         <v>179</v>
       </c>
@@ -3865,7 +3828,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="1">
         <v>180</v>
       </c>
@@ -3873,7 +3836,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="1">
         <v>181</v>
       </c>
@@ -3881,7 +3844,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="1">
         <v>182</v>
       </c>
@@ -3889,7 +3852,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="1">
         <v>183</v>
       </c>
@@ -3897,7 +3860,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="1">
         <v>184</v>
       </c>
@@ -3905,7 +3868,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="1">
         <v>185</v>
       </c>
@@ -3913,7 +3876,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="1">
         <v>186</v>
       </c>
@@ -3921,7 +3884,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="1">
         <v>187</v>
       </c>
@@ -3929,7 +3892,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="1">
         <v>188</v>
       </c>
@@ -3937,88 +3900,88 @@
         <v>338</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="B222" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="B224" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238" s="1" t="s">
         <v>354</v>
       </c>
@@ -4029,24 +3992,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C423"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="78.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="78.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4054,7 +4015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4062,7 +4023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4070,7 +4031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4078,7 +4039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4086,3360 +4047,3249 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>74</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>76</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>77</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>78</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>80</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>81</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>83</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>84</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>86</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>87</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B96" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>89</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>92</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>93</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>95</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>96</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>98</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>99</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>101</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B110" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>103</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>104</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>105</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>106</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>107</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>108</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>109</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>110</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>111</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>112</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>113</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>114</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>115</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>116</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>117</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>118</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>119</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>120</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>121</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>122</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>123</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>124</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>125</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>126</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>127</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>128</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>129</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>130</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>131</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>132</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>133</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>134</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>135</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>136</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>137</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>138</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>139</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>140</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>141</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>142</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>143</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>144</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>145</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>146</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>147</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>148</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>149</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>150</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>151</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>152</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>153</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>154</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>155</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>156</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>157</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>158</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>159</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>160</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>161</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>162</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>163</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>164</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>165</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>166</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>167</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>168</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>169</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="B179" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>170</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>171</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>172</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>173</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>174</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>175</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>176</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>177</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>178</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>179</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>180</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>181</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>182</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>183</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>184</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>185</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>186</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>187</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>188</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>189</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>190</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>191</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>192</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>193</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>194</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>195</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>196</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>197</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>198</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>199</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>200</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>201</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>202</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>203</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>204</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>205</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>206</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>207</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>208</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>209</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>210</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>211</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>212</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>213</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>214</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>215</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>216</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>217</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>218</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>219</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>220</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>221</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>222</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>223</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>224</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>225</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>226</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>227</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>228</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>229</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>230</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>231</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>232</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>233</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>234</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>235</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>236</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>237</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>238</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>239</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>240</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>241</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>242</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>243</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>244</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>245</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>246</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>247</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>248</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>249</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="B265" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>250</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>251</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>252</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>253</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>254</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>255</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>256</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>257</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>258</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>259</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>260</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>261</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>262</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>263</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>264</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>265</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>266</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>267</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>268</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>269</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>270</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>271</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>272</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>273</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>274</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>275</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>276</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>277</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>278</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>279</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>280</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>281</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>282</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="B299" s="1"/>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="B300" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>283</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>284</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>285</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>286</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>287</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>288</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>289</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>290</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>291</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>292</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>293</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>294</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>295</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>296</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>297</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>298</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>299</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>300</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>301</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>302</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>303</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>304</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>305</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>306</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>307</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>308</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>309</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>310</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>311</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>312</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>313</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>314</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>315</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>316</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>317</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>318</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>41</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>45</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>51</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>52</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>54</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>55</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>56</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>57</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>58</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>60</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>61</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>62</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>63</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>64</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>65</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>66</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>67</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>319</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>320</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>321</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>322</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>323</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>324</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>325</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>326</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>327</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>328</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>329</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>330</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>331</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>332</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>333</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>334</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>335</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>336</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>337</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>338</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>68</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>69</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>70</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>71</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>72</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>73</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>74</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>75</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>76</v>
-      </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>77</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>78</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>79</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>80</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>81</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>82</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>83</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>84</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>85</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>339</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>340</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>341</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>342</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>343</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>344</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>345</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>346</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>347</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>348</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>349</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>350</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>351</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>352</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>353</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>354</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>355</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>356</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>357</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>358</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>359</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>360</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>361</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>362</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>363</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>364</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>365</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>86</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>87</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>88</v>
-      </c>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>89</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>90</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>91</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>92</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>93</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>94</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>95</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>97</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>98</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>99</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>100</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>101</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>102</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>103</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>104</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>105</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>106</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>107</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>108</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>109</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>110</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>111</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>112</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>113</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>114</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>115</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>116</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>117</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>118</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>119</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>120</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>121</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>122</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>123</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>124</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>125</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>126</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>127</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>128</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>129</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>130</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>131</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>132</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>133</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>134</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>135</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>136</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>137</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>138</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>139</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>140</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>141</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>142</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>143</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>144</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>145</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
         <v>366</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>146</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="B384" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
         <v>367</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>147</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="B385" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
         <v>368</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>148</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="B386" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>149</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="B387" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>150</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="B388" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
         <v>371</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>151</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="B389" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
         <v>372</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>152</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="B390" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>153</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="B391" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
         <v>374</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>154</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="B392" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
         <v>375</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>155</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="B393" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
         <v>376</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>156</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="B394" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
         <v>377</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>157</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="B395" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
         <v>378</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>158</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="B396" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
         <v>379</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>159</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="B397" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>160</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="B398" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
         <v>381</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>161</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="B399" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
         <v>382</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>162</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="B400" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
         <v>383</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>163</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="B401" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
         <v>384</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>164</v>
-      </c>
-      <c r="B167" s="1" t="s">
+      <c r="B402" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
         <v>385</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>165</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="B403" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
         <v>386</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>166</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="B404" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
         <v>387</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>167</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="B405" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
         <v>388</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>168</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="B406" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
         <v>389</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>169</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="B407" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>170</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="B408" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
         <v>391</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>171</v>
-      </c>
-      <c r="B174" s="1" t="s">
+      <c r="B409" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="B410" s="1"/>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="B411" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
         <v>392</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>172</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="B412" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
         <v>393</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>173</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="B413" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
         <v>394</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>174</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="B414" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>175</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="B415" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
         <v>396</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>176</v>
-      </c>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>177</v>
-      </c>
-      <c r="B180" s="2" t="s">
+      <c r="B416" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
         <v>397</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>178</v>
-      </c>
-      <c r="B181" s="1" t="s">
+      <c r="B417" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
         <v>398</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>179</v>
-      </c>
-      <c r="B182" s="1" t="s">
+      <c r="B418" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>180</v>
-      </c>
-      <c r="B183" s="1" t="s">
+      <c r="B419" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>181</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="B420" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
         <v>401</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>182</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>183</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>184</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>185</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>186</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>187</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>188</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>189</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>190</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>191</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>192</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>193</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>194</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>195</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>196</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>197</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>198</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>199</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>200</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>201</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>202</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>203</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>204</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>205</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>206</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>207</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>208</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>209</v>
-      </c>
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>210</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>211</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>212</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>213</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>214</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>215</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>216</v>
-      </c>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>217</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>218</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>219</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>220</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>221</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>222</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>223</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>224</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>225</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>226</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>227</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>228</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>229</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>230</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>231</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>232</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>233</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>234</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>235</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>236</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>237</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>238</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>239</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>240</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>241</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>242</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>243</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>244</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>245</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>246</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>247</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>248</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>249</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>250</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>251</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>252</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>253</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>254</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>255</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>256</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>257</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>258</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>259</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>260</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>261</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>262</v>
-      </c>
-      <c r="B265" s="1"/>
-    </row>
-    <row r="266" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>263</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>264</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>265</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>266</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>267</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>268</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>269</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>270</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>271</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>272</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>273</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>274</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>275</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>276</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>277</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>278</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>279</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>280</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>281</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>282</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>283</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>284</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>285</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>286</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>287</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>288</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
-        <v>289</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
-        <v>290</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
-        <v>291</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
-        <v>292</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>293</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>294</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>295</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>296</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>297</v>
-      </c>
-      <c r="B300" s="1"/>
-    </row>
-    <row r="301" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>298</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
-        <v>299</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
-        <v>300</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
-        <v>301</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>302</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
-        <v>303</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
-        <v>304</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
-        <v>305</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
-        <v>306</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
-        <v>307</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
-        <v>308</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
-        <v>309</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
-        <v>310</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
-        <v>311</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
-        <v>312</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
-        <v>313</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
-        <v>314</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
-        <v>315</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
-        <v>316</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
-        <v>317</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
-        <v>318</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
-        <v>319</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
-        <v>320</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
-        <v>321</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
-        <v>322</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
-        <v>323</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
-        <v>324</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
-        <v>325</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>326</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
-        <v>327</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
-        <v>328</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
-        <v>329</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
-        <v>330</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
-        <v>331</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
-        <v>332</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
-        <v>333</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>334</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
-        <v>335</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
-        <v>336</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
-        <v>337</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
-        <v>338</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
-        <v>339</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>340</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>341</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>342</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>343</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>344</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>345</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>346</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
-        <v>347</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
-        <v>348</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
-        <v>349</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
-        <v>350</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>351</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
-        <v>352</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
-        <v>353</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>354</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
-        <v>355</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
-        <v>356</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
-        <v>357</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
-        <v>358</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
-        <v>359</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
-        <v>360</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
-        <v>361</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
-        <v>362</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
-        <v>363</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
-        <v>364</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
-        <v>365</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
-        <v>366</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
-        <v>367</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
-        <v>368</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
-        <v>369</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
-        <v>370</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
-        <v>371</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
-        <v>372</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>373</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
-        <v>374</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
-        <v>375</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
-        <v>376</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
-        <v>377</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
-        <v>378</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
-        <v>379</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
-        <v>380</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
-        <v>381</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
-        <v>382</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
-        <v>383</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
-        <v>384</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
-        <v>385</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
-        <v>386</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
-        <v>387</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
-        <v>388</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
-        <v>389</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
-        <v>390</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
-        <v>391</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
-        <v>392</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
-        <v>393</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
-        <v>394</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
-        <v>395</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
-        <v>396</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
-        <v>397</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
-        <v>398</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
-        <v>399</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
-        <v>400</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
-        <v>401</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
-        <v>402</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
-        <v>403</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
-        <v>404</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
-        <v>405</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
-        <v>406</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
-        <v>407</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
-        <v>408</v>
-      </c>
-      <c r="B411" s="1"/>
-    </row>
-    <row r="412" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
-        <v>409</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
-        <v>410</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
-        <v>411</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
-        <v>412</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
-        <v>413</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
-        <v>414</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
-        <v>415</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
-        <v>416</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
-        <v>417</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1">
-        <v>418</v>
-      </c>
       <c r="B421" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
-        <v>419</v>
-      </c>
-      <c r="B422" s="1" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C423" t="s">
-        <v>634</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>630</v>
       </c>
     </row>
   </sheetData>
